--- a/Income/SBUX_inc.xlsx
+++ b/Income/SBUX_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.1288</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.136</v>
+        <v>0.2752</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2795</v>
+        <v>0.4156</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4366</v>
+        <v>0.5595</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.5602</v>
+        <v>0.6816</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.6783</v>
@@ -2489,16 +2489,16 @@
         <v>0.0617</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0573</v>
+        <v>0.0444</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0195</v>
+        <v>0.007</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0616</v>
+        <v>0.0503</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1126</v>
+        <v>0.1014</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.1222</v>
@@ -3505,16 +3505,16 @@
         <v>0.1597</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.154</v>
+        <v>0.1569</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.1561</v>
+        <v>0.1589</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1968</v>
+        <v>0.1994</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2106</v>
+        <v>0.2132</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2085</v>
@@ -3632,16 +3632,16 @@
         <v>0.1227</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1204</v>
+        <v>0.1075</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.0887</v>
+        <v>0.0762</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1261</v>
+        <v>0.1148</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1782</v>
+        <v>0.167</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1904</v>
